--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6A320-336D-4CAF-9251-8CE0C587B5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3026CD51-AFE6-4F63-96C0-561A2D9FBDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1695" windowWidth="40350" windowHeight="25635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="2160" windowWidth="18915" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Overview" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="190">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -454,9 +456,6 @@
     <t>73</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>Blood Panel
 BUN
 (mg/dL)</t>
@@ -655,18 +654,12 @@
     <t>Decrease [S1]</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
     <t>Some recovery [S1]</t>
   </si>
   <si>
-    <t>5940</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -676,73 +669,10 @@
     <t>The hiker takes a moment to rest.</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>5729</t>
-  </si>
-  <si>
-    <t>7570</t>
-  </si>
-  <si>
-    <t>6747</t>
-  </si>
-  <si>
-    <t>6037</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
     <t>0.86</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>5300</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.69</t>
   </si>
   <si>
     <t>Engine HeartRate
@@ -797,6 +727,66 @@
   </si>
   <si>
     <t>The heat stroke scenario simulates the body's temperature regulation system. This scenario highlights the ability of the Pulse physiology engine to simulate the energy exchange between the human body and the enviroment.</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.60</t>
   </si>
 </sst>
 </file>
@@ -1373,18 +1363,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1396,24 +1404,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1776,20 +1766,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="A2" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1820,72 +1810,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
+      <c r="B7" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:4" s="90" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="B11" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -1913,82 +1903,82 @@
       <c r="A15" s="91">
         <v>1</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>2</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>3</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>4</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>5</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>6</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>7</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>8</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -2002,21 +1992,21 @@
       <c r="A24" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -2062,13 +2052,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -2081,6 +2064,13 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2100,7 +2090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN29" sqref="AN29"/>
+      <selection pane="topRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,19 +2165,19 @@
         <v>24</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>27</v>
@@ -2199,25 +2189,25 @@
         <v>29</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="P1" s="30" t="s">
         <v>30</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>31</v>
       </c>
       <c r="S1" s="32" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="T1" s="30" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="V1" s="30" t="s">
         <v>33</v>
@@ -2229,13 +2219,13 @@
         <v>34</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="30" t="s">
         <v>35</v>
       </c>
       <c r="AA1" s="32" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="30" t="s">
         <v>36</v>
@@ -2259,19 +2249,19 @@
         <v>59</v>
       </c>
       <c r="AI1" s="32" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="AJ1" s="80" t="s">
         <v>60</v>
       </c>
       <c r="AK1" s="32" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="AL1" s="67" t="s">
         <v>81</v>
       </c>
       <c r="AM1" s="32" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="AN1" s="67" t="s">
         <v>82</v>
@@ -2280,10 +2270,10 @@
         <v>82</v>
       </c>
       <c r="AP1" s="67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AQ1" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AR1" s="67" t="s">
         <v>83</v>
@@ -2316,10 +2306,10 @@
         <v>87</v>
       </c>
       <c r="BB1" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BC1" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="150" x14ac:dyDescent="0.25">
@@ -2333,7 +2323,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>88</v>
@@ -2348,13 +2338,13 @@
         <v>62</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="J2" s="35">
         <v>5500</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>40</v>
@@ -2366,13 +2356,13 @@
         <v>63</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P2" s="37" t="s">
         <v>64</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>65</v>
@@ -2384,7 +2374,7 @@
         <v>66</v>
       </c>
       <c r="U2" s="38" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="V2" s="42" t="s">
         <v>42</v>
@@ -2399,10 +2389,10 @@
         <v>96</v>
       </c>
       <c r="Z2" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="38" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AB2" s="46" t="s">
         <v>44</v>
@@ -2427,47 +2417,47 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="85">
         <v>33</v>
       </c>
       <c r="AL2" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM2" s="85">
         <v>0</v>
       </c>
       <c r="AN2" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO2" s="70"/>
       <c r="AP2" s="83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ2" s="70"/>
       <c r="AR2" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS2" s="70"/>
       <c r="AT2" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AU2" s="70"/>
       <c r="AV2" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AW2" s="70"/>
       <c r="AX2" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY2" s="70"/>
       <c r="AZ2" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BA2" s="70"/>
       <c r="BB2" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BC2" s="70"/>
     </row>
@@ -2483,7 +2473,7 @@
         <v>1200</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="68" t="s">
         <v>110</v>
@@ -2492,45 +2482,45 @@
         <v>89</v>
       </c>
       <c r="G3" s="85">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>90</v>
       </c>
       <c r="I3" s="87">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="86">
-        <v>5685</v>
+      <c r="K3" s="38">
+        <v>5750</v>
       </c>
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
       <c r="N3" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="87">
+        <v>85</v>
+      </c>
+      <c r="P3" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="85">
-        <v>99</v>
-      </c>
-      <c r="P3" s="89" t="s">
+      <c r="Q3" s="87">
+        <v>100</v>
+      </c>
+      <c r="R3" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="87">
-        <v>110</v>
-      </c>
-      <c r="R3" s="68" t="s">
-        <v>137</v>
-      </c>
       <c r="S3" s="86">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="T3" s="68" t="s">
         <v>90</v>
       </c>
       <c r="U3" s="85">
-        <v>6635</v>
+        <v>7500</v>
       </c>
       <c r="V3" s="68"/>
       <c r="W3" s="68"/>
@@ -2538,13 +2528,13 @@
         <v>97</v>
       </c>
       <c r="Y3" s="85">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA3" s="85">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="AB3" s="46" t="s">
         <v>48</v>
@@ -2565,13 +2555,13 @@
         <v>37.5</v>
       </c>
       <c r="AJ3" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="85">
         <v>32.799999999999997</v>
       </c>
       <c r="AL3" s="72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM3" s="85">
         <v>0.05</v>
@@ -2619,66 +2609,66 @@
         <v>60</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="87">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" s="85">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J4" s="68" t="s">
         <v>91</v>
       </c>
       <c r="K4" s="85">
-        <v>5685</v>
+        <v>5750</v>
       </c>
       <c r="L4" s="68"/>
       <c r="M4" s="68"/>
       <c r="N4" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" s="85">
-        <v>98</v>
+        <v>150</v>
+      </c>
+      <c r="O4" s="87">
+        <v>50</v>
       </c>
       <c r="P4" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="85">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="S4" s="85">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="S4" s="87">
+        <v>35</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="U4" s="85">
-        <v>6328</v>
+        <v>150</v>
+      </c>
+      <c r="U4" s="87">
+        <v>10500</v>
       </c>
       <c r="V4" s="68"/>
       <c r="W4" s="68"/>
       <c r="X4" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y4" s="86">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="Y4" s="87">
+        <v>24</v>
       </c>
       <c r="Z4" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA4" s="87">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB4" s="46"/>
       <c r="AC4" s="47"/>
@@ -2693,7 +2683,7 @@
         <v>37.6</v>
       </c>
       <c r="AJ4" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK4" s="85">
         <v>32.799999999999997</v>
@@ -2733,54 +2723,54 @@
         <v>600</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="71" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J5" s="68" t="s">
         <v>91</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" s="73"/>
       <c r="M5" s="74"/>
       <c r="N5" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="P5" s="68" t="s">
-        <v>140</v>
-      </c>
       <c r="Q5" s="45" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="R5" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="T5" s="68" t="s">
         <v>92</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="V5" s="73"/>
       <c r="W5" s="75"/>
@@ -2788,13 +2778,13 @@
         <v>97</v>
       </c>
       <c r="Y5" s="38" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Z5" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>178</v>
+        <v>130</v>
+      </c>
+      <c r="AA5" s="87" t="s">
+        <v>188</v>
       </c>
       <c r="AB5" s="46" t="s">
         <v>48</v>
@@ -2809,19 +2799,19 @@
         <v>41.706000000000003</v>
       </c>
       <c r="AH5" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI5" s="86">
-        <v>38.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="AJ5" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK5" s="85">
-        <v>32.799999999999997</v>
+        <v>30</v>
       </c>
       <c r="AL5" s="72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM5" s="85">
         <v>0.11</v>
@@ -2869,54 +2859,54 @@
         <v>90</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="J6" s="68" t="s">
         <v>91</v>
       </c>
       <c r="K6" s="88">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="L6" s="73"/>
       <c r="M6" s="74"/>
       <c r="N6" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>158</v>
+        <v>133</v>
+      </c>
+      <c r="O6" s="87" t="s">
+        <v>177</v>
       </c>
       <c r="P6" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>175</v>
+        <v>128</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="R6" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>159</v>
+        <v>140</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="T6" s="68" t="s">
         <v>93</v>
       </c>
       <c r="U6" s="38" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="V6" s="73"/>
       <c r="W6" s="75"/>
@@ -2924,13 +2914,13 @@
         <v>109</v>
       </c>
       <c r="Y6" s="38" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Z6" s="82" t="s">
         <v>90</v>
       </c>
       <c r="AA6" s="45" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AB6" s="46" t="s">
         <v>51</v>
@@ -2951,13 +2941,13 @@
         <v>38.299999999999997</v>
       </c>
       <c r="AJ6" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK6" s="85">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="AL6" s="72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM6" s="85">
         <v>0.11</v>
@@ -3011,48 +3001,48 @@
         <v>99</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>173</v>
+        <v>132</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>149</v>
       </c>
       <c r="J7" s="68" t="s">
         <v>108</v>
       </c>
       <c r="K7" s="88">
-        <v>6190</v>
+        <v>6400</v>
       </c>
       <c r="L7" s="73"/>
       <c r="M7" s="74"/>
       <c r="N7" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P7" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>176</v>
+        <v>128</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>182</v>
       </c>
       <c r="T7" s="68" t="s">
         <v>93</v>
       </c>
       <c r="U7" s="38" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="V7" s="73"/>
       <c r="W7" s="75"/>
@@ -3066,7 +3056,7 @@
         <v>90</v>
       </c>
       <c r="AA7" s="38" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AB7" s="46" t="s">
         <v>51</v>
@@ -3087,13 +3077,13 @@
         <v>38.1</v>
       </c>
       <c r="AJ7" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK7" s="85">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="AL7" s="72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM7" s="85">
         <v>0.1</v>
@@ -3224,7 +3214,7 @@
       <c r="T10" s="64"/>
       <c r="V10" s="64"/>
       <c r="AS10" s="50" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">

--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3026CD51-AFE6-4F63-96C0-561A2D9FBDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7892B-D302-467D-AB31-1288F95C2CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="2160" windowWidth="18915" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3060" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Overview" sheetId="12" r:id="rId1"/>
-    <sheet name="Heat Stroke Breakdown" sheetId="13" r:id="rId2"/>
+    <sheet name="Heat Stroke Breakdown" sheetId="13" state="hidden" r:id="rId2"/>
+    <sheet name="Heat Stroke" sheetId="14" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Heat Stroke Breakdown'!$A$1:$BA$8</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="239">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -787,6 +788,160 @@
   </si>
   <si>
     <t>0.60</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time  (s)</t>
+  </si>
+  <si>
+    <t>Sample Scenario Time  (s)</t>
+  </si>
+  <si>
+    <t>Heart Rate  (beats/min)</t>
+  </si>
+  <si>
+    <t>Respiration Rate  (mmHg)</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation  (mmHg)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|</t>
+  </si>
+  <si>
+    <t>Heat stroke is evident after 10 more minutes of exercise at a rising temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The patient's clothing is removed. IV saline is administered and active cooling begun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exercising heavily for 20 minutes in bulky clothing at an ambient temperature of 16 to 20C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The patient is transported to a medical treatment facility.</t>
+  </si>
+  <si>
+    <t>Heart Stroke Volume (mL)</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Systolic Arterial Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Diastolic Arterial Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Core Temperate (C)</t>
+  </si>
+  <si>
+    <t>Skin Temperature (C)</t>
+  </si>
+  <si>
+    <t>Sweat Rate  (mL/min)</t>
+  </si>
+  <si>
+    <t>&gt; 80 @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Decrease @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Decreasing (to baseline over 12 hours) @cite ODonnell1977hemodynamic</t>
+  </si>
+  <si>
+    <t>120 - 180 @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>|&lt;span class="danger"&gt;</t>
+  </si>
+  <si>
+    <t>Increase @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>Some recovery@cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>121.9 @cite ODonnell1977hemodynamic
+101 - 121 @cite Christie1987clinical</t>
+  </si>
+  <si>
+    <t>Increase @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>Increasing @cite Pickering1982blood then decreasing with heat stroke @cite ODonnell1977hemodynamic</t>
+  </si>
+  <si>
+    <t>Decrease @cite ODonnell1977hemodynamic</t>
+  </si>
+  <si>
+    <t>Some recovery @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>Increase toward max exertion values
+34.4% above resting (168) @cite Christie1987clinical
+28.8% above resting (161) @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>&lt; 120 @cite Bouchama2002heat</t>
+  </si>
+  <si>
+    <t>Increase
+&lt; 34.4% above resting (168) Christie1987clinical
+&lt; 28.8% above resting (161) [7]</t>
+  </si>
+  <si>
+    <t>No significant change (86) @cite Christie1987clinical, (80) @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>No significant change (86) @cite Christie1987clinical, (80) @cite Pickering1982blood
+Possible slight decrease  @cite Bouchama2002heat, @cite Benzinger1969heat</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
+  </si>
+  <si>
+    <t>Decreasing @cite Brutsaert2000higher</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="danger"&gt;</t>
+  </si>
+  <si>
+    <t>Increase  @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>No change  @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>Decreasing with treatment  @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>&gt;40 degC @cite Bouchama2002heat</t>
+  </si>
+  <si>
+    <t>&lt; Core @cite Benzinger1969heat</t>
+  </si>
+  <si>
+    <t>No change @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+For direct calc = 2.3045e-5*(core-37.1) NOTE this may be low @cite Benzinger1969heat</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1108,6 +1263,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1115,7 +1283,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1363,12 +1531,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1387,26 +1573,35 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1754,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,20 +1961,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1810,72 +2005,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
     </row>
     <row r="8" spans="1:4" s="90" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
     </row>
     <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -1903,82 +2098,82 @@
       <c r="A15" s="91">
         <v>1</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>2</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>3</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>4</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>5</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>6</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>7</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>8</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -1992,21 +2187,21 @@
       <c r="A24" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -2052,6 +2247,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -2064,13 +2266,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2088,9 +2283,9 @@
   </sheetPr>
   <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK8" sqref="AK8"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL3" sqref="AL3:AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,4 +3450,668 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C347C6-C685-4770-B27F-898832A98C99}">
+  <dimension ref="A1:AC8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="90" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="90" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="25.28515625" style="90" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="111" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" s="108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="T2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA2" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB2" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC2" s="108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="108">
+        <v>60</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="108">
+        <v>1260</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="R3" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="X3" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z3" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA3" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="108">
+        <v>1260</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="108">
+        <v>1320</v>
+      </c>
+      <c r="I4" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q4" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="R4" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="S4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="V4" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="W4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z4" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" s="114" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC4" s="108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="108">
+        <v>1320</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="108">
+        <v>1920</v>
+      </c>
+      <c r="I5" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="O5" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q5" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="S5" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="T5" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="V5" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="X5" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y5" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z5" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA5" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB5" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC5" s="108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="108">
+        <v>1920</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="108">
+        <v>2010</v>
+      </c>
+      <c r="I6" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="N6" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="O6" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q6" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="S6" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="V6" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="W6" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="X6" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y6" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z6" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA6" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB6" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC6" s="108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="108">
+        <v>2010</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="108">
+        <v>2610</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="O7" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="T7" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="V7" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="W7" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="X7" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y7" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z7" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA7" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB7" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC7" s="108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P8" s="84"/>
+      <c r="V8" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7892B-D302-467D-AB31-1288F95C2CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA08D6C2-D7D1-4A02-B787-F272AC96347A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3060" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Overview" sheetId="12" r:id="rId1"/>
@@ -1531,18 +1531,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1555,53 +1600,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1961,20 +1961,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2005,72 +2005,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
     </row>
     <row r="8" spans="1:4" s="90" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
     </row>
     <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -2098,82 +2098,82 @@
       <c r="A15" s="91">
         <v>1</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>2</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>3</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>4</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>5</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>6</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>7</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>8</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -2187,21 +2187,21 @@
       <c r="A24" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -2247,13 +2247,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -2266,6 +2259,13 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,8 +2284,8 @@
   <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL3" sqref="AL3:AL7"/>
+      <pane xSplit="4" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB1" activeCellId="7" sqref="AN1 AP1 AT1 AV1 AX1 AR1 AZ1 BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,10 +3395,10 @@
       <c r="BC8" s="76"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C347C6-C685-4770-B27F-898832A98C99}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,620 +3490,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="109" t="s">
+      <c r="A1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="110" t="s">
+      <c r="E1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="110" t="s">
+      <c r="G1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="110" t="s">
+      <c r="I1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="111" t="s">
+      <c r="K1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" s="111" t="s">
+      <c r="M1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" s="111" t="s">
+      <c r="O1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="111" t="s">
+      <c r="Q1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="111" t="s">
+      <c r="S1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="U1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="V1" s="111" t="s">
+      <c r="U1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="111" t="s">
+      <c r="W1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="Y1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z1" s="111" t="s">
+      <c r="Y1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="AA1" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB1" s="111" t="s">
+      <c r="AA1" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="108" t="s">
+      <c r="AC1" s="93" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="111" t="s">
+      <c r="A2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="111" t="s">
+      <c r="C2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="111" t="s">
+      <c r="E2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="111" t="s">
+      <c r="G2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="111" t="s">
+      <c r="I2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="111" t="s">
+      <c r="K2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" s="111" t="s">
+      <c r="M2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" s="111" t="s">
+      <c r="O2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="111" t="s">
+      <c r="Q2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="S2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="T2" s="111" t="s">
+      <c r="S2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="T2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="111" t="s">
+      <c r="U2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="W2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="X2" s="111" t="s">
+      <c r="W2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z2" s="111" t="s">
+      <c r="Y2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="AA2" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB2" s="111" t="s">
+      <c r="AA2" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="AC2" s="108" t="s">
+      <c r="AC2" s="93" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="93" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="112" t="s">
+      <c r="C3" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="108">
+      <c r="E3" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="93">
         <v>60</v>
       </c>
-      <c r="G3" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="108">
+      <c r="G3" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="93">
         <v>1260</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="R3" s="116" t="s">
+      <c r="R3" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="108" t="s">
+      <c r="S3" s="93" t="s">
         <v>199</v>
       </c>
       <c r="T3" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="108" t="s">
+      <c r="U3" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="V3" s="113" t="s">
+      <c r="V3" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="W3" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="X3" s="114" t="s">
+      <c r="X3" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="Y3" s="108" t="s">
+      <c r="Y3" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="Z3" s="114" t="s">
+      <c r="Z3" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AA3" s="108" t="s">
+      <c r="AA3" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="AB3" s="114" t="s">
+      <c r="AB3" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="AC3" s="108" t="s">
+      <c r="AC3" s="93" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="93" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="108">
+      <c r="C4" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="93">
         <v>1260</v>
       </c>
-      <c r="G4" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="108">
+      <c r="G4" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="93">
         <v>1320</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="108" t="s">
+      <c r="M4" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="R4" s="115" t="s">
+      <c r="R4" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="93" t="s">
         <v>199</v>
       </c>
       <c r="T4" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="U4" s="108" t="s">
+      <c r="U4" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="V4" s="115" t="s">
+      <c r="V4" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="X4" s="114" t="s">
+      <c r="X4" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="Y4" s="108" t="s">
+      <c r="Y4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="Z4" s="114" t="s">
+      <c r="Z4" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AA4" s="108" t="s">
+      <c r="AA4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="AB4" s="114" t="s">
+      <c r="AB4" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="AC4" s="108" t="s">
+      <c r="AC4" s="93" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="93" t="s">
         <v>190</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="112" t="s">
+      <c r="C5" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="108">
+      <c r="E5" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="93">
         <v>1320</v>
       </c>
-      <c r="G5" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="108">
+      <c r="G5" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="93">
         <v>1920</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="N5" s="114" t="s">
+      <c r="N5" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="P5" s="115" t="s">
+      <c r="P5" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="Q5" s="108" t="s">
+      <c r="Q5" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="116" t="s">
+      <c r="R5" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="S5" s="108" t="s">
+      <c r="S5" s="93" t="s">
         <v>199</v>
       </c>
       <c r="T5" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="108" t="s">
+      <c r="U5" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="V5" s="115" t="s">
+      <c r="V5" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="W5" s="108" t="s">
+      <c r="W5" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="X5" s="116" t="s">
+      <c r="X5" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="Y5" s="108" t="s">
+      <c r="Y5" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="Z5" s="114" t="s">
+      <c r="Z5" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AA5" s="108" t="s">
+      <c r="AA5" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="AB5" s="114" t="s">
+      <c r="AB5" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="AC5" s="108" t="s">
+      <c r="AC5" s="93" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="93" t="s">
         <v>190</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="112" t="s">
+      <c r="C6" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="108">
+      <c r="E6" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="93">
         <v>1920</v>
       </c>
-      <c r="G6" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="108">
+      <c r="G6" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="93">
         <v>2010</v>
       </c>
-      <c r="I6" s="108" t="s">
+      <c r="I6" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="108" t="s">
+      <c r="K6" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="115" t="s">
+      <c r="L6" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="M6" s="108" t="s">
+      <c r="M6" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="N6" s="115" t="s">
+      <c r="N6" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="O6" s="108" t="s">
+      <c r="O6" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="P6" s="115" t="s">
+      <c r="P6" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Q6" s="108" t="s">
+      <c r="Q6" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="R6" s="116" t="s">
+      <c r="R6" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="S6" s="108" t="s">
+      <c r="S6" s="93" t="s">
         <v>199</v>
       </c>
       <c r="T6" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="U6" s="108" t="s">
+      <c r="U6" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="V6" s="115" t="s">
+      <c r="V6" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="W6" s="108" t="s">
+      <c r="W6" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="X6" s="116" t="s">
+      <c r="X6" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="Y6" s="108" t="s">
+      <c r="Y6" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="Z6" s="114" t="s">
+      <c r="Z6" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AA6" s="108" t="s">
+      <c r="AA6" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="AB6" s="114" t="s">
+      <c r="AB6" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="AC6" s="108" t="s">
+      <c r="AC6" s="93" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="93" t="s">
         <v>190</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="108">
+      <c r="E7" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="93">
         <v>2010</v>
       </c>
-      <c r="G7" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="108">
+      <c r="G7" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="93">
         <v>2610</v>
       </c>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="108" t="s">
+      <c r="M7" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="N7" s="114" t="s">
+      <c r="N7" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="O7" s="108" t="s">
+      <c r="O7" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="115" t="s">
+      <c r="P7" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Q7" s="108" t="s">
+      <c r="Q7" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="R7" s="116" t="s">
+      <c r="R7" s="101" t="s">
         <v>228</v>
       </c>
       <c r="T7" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="U7" s="108" t="s">
+      <c r="U7" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="V7" s="114" t="s">
+      <c r="V7" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="W7" s="108" t="s">
+      <c r="W7" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="X7" s="114" t="s">
+      <c r="X7" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="Y7" s="108" t="s">
+      <c r="Y7" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="Z7" s="114" t="s">
+      <c r="Z7" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="AA7" s="108" t="s">
+      <c r="AA7" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="AB7" s="114" t="s">
+      <c r="AB7" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="AC7" s="108" t="s">
+      <c r="AC7" s="93" t="s">
         <v>200</v>
       </c>
     </row>

--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA08D6C2-D7D1-4A02-B787-F272AC96347A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFA824-11BC-4650-99AD-48FD9C5F7B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="245">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -877,10 +877,6 @@
     <t>Some recovery@cite rmetoyer2016SME</t>
   </si>
   <si>
-    <t>121.9 @cite ODonnell1977hemodynamic
-101 - 121 @cite Christie1987clinical</t>
-  </si>
-  <si>
     <t>Increase @cite Pickering1982blood</t>
   </si>
   <si>
@@ -893,26 +889,12 @@
     <t>Some recovery @cite rmetoyer2016SME</t>
   </si>
   <si>
-    <t>Increase toward max exertion values
-34.4% above resting (168) @cite Christie1987clinical
-28.8% above resting (161) @cite Pickering1982blood</t>
-  </si>
-  <si>
     <t>&lt; 120 @cite Bouchama2002heat</t>
   </si>
   <si>
-    <t>Increase
-&lt; 34.4% above resting (168) Christie1987clinical
-&lt; 28.8% above resting (161) [7]</t>
-  </si>
-  <si>
     <t>No significant change (86) @cite Christie1987clinical, (80) @cite Pickering1982blood</t>
   </si>
   <si>
-    <t>No significant change (86) @cite Christie1987clinical, (80) @cite Pickering1982blood
-Possible slight decrease  @cite Bouchama2002heat, @cite Benzinger1969heat</t>
-  </si>
-  <si>
     <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
   </si>
   <si>
@@ -940,8 +922,89 @@
     <t>No change @cite rmetoyer2016SME</t>
   </si>
   <si>
-    <t xml:space="preserve">
-For direct calc = 2.3045e-5*(core-37.1) NOTE this may be low @cite Benzinger1969heat</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hike </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Hiking at exercise intensity 0.1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Climb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Climbing at exercise intensity 0.45)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bystander Actions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Move to cooler environment, remove clothing, apply cold pack, and start IV fluids)</t>
+    </r>
+  </si>
+  <si>
+    <t>121.9; @cite ODonnell1977hemodynamic 101 - 121 @cite Christie1987clinical</t>
+  </si>
+  <si>
+    <t>Increase&lt; 34.4% above resting (168); @cite Christie1987clinical &lt; 28.8% above resting (161) @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>For direct calc = 2.3045e-5*(core-37.1) NOTE this may be low @cite Benzinger1969heat</t>
+  </si>
+  <si>
+    <t>No significant change (86); @cite Christie1987clinical (80); @cite Pickering1982blood Possible slight decrease  @cite Bouchama2002heat @cite Benzinger1969heat</t>
+  </si>
+  <si>
+    <t>No significant change (86); @cite Christie1987clinical (80); @cite Pickering1982blood Possible slight decrease  @cite Bouchama2002heat, @cite Benzinger1969heat</t>
+  </si>
+  <si>
+    <t>No significant change (86); @cite Christie1987clinical (80) @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>Increase toward max exertion values 34.4% above resting (168); @cite Christie1987clinical 28.8% above resting (161) @cite Pickering1982blood</t>
   </si>
 </sst>
 </file>
@@ -1531,12 +1594,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1546,18 +1603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1602,6 +1647,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1961,20 +2024,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2005,72 +2068,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:4" s="90" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
     </row>
     <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -2098,82 +2161,82 @@
       <c r="A15" s="91">
         <v>1</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>2</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>3</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>4</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>5</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>6</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>7</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>8</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -2187,21 +2250,21 @@
       <c r="A24" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="115"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -3395,10 +3458,10 @@
       <c r="BC8" s="76"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
@@ -3456,654 +3519,656 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C347C6-C685-4770-B27F-898832A98C99}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="90" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="90" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="90" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="90" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" style="90" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="25.28515625" style="90" customWidth="1"/>
-    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="111" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="111" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="111" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="111" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="111" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="111" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="111" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="111" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="111" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="111" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" style="111" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="111" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" style="111" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="25.28515625" style="111" customWidth="1"/>
+    <col min="29" max="29" width="9" style="111" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="95" t="s">
         <v>190</v>
       </c>
       <c r="D1" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="95" t="s">
+      <c r="G1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="95" t="s">
+      <c r="I1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="96" t="s">
+      <c r="K1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" s="96" t="s">
+      <c r="M1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" s="96" t="s">
+      <c r="O1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="96" t="s">
+      <c r="Q1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="96" t="s">
+      <c r="S1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="U1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="V1" s="96" t="s">
+      <c r="U1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="96" t="s">
+      <c r="W1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="Y1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z1" s="96" t="s">
+      <c r="Y1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="AA1" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB1" s="96" t="s">
+      <c r="AA1" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="93" t="s">
+      <c r="AC1" s="95" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="96" t="s">
+      <c r="G2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="96" t="s">
+      <c r="I2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="96" t="s">
+      <c r="K2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" s="96" t="s">
+      <c r="M2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" s="96" t="s">
+      <c r="O2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="96" t="s">
+      <c r="Q2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="S2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="T2" s="96" t="s">
+      <c r="S2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="T2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="96" t="s">
+      <c r="U2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="W2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="X2" s="96" t="s">
+      <c r="W2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z2" s="96" t="s">
+      <c r="Y2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="AA2" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB2" s="96" t="s">
+      <c r="AA2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB2" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="AC2" s="93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="AC2" s="95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="93">
+      <c r="E3" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="95">
         <v>60</v>
       </c>
-      <c r="G3" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="93">
+      <c r="G3" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="95">
         <v>1260</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="P3" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="W3" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="X3" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y3" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z3" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA3" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC3" s="95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="95">
+        <v>1260</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="95">
+        <v>1320</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q4" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="R4" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="S4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="V4" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="W4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z4" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC4" s="95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="95">
+        <v>1320</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="95">
+        <v>1920</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="O5" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="115" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="S5" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="T5" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="V5" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="W5" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="X5" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="Y5" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z5" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA5" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC5" s="95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="95">
+        <v>1920</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="95">
+        <v>2010</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="N6" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="P6" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q6" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="S6" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="V6" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="M3" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="N3" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="O3" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="P3" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="R3" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="S3" s="93" t="s">
+      <c r="W6" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="X6" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y6" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" s="93" t="s">
+      <c r="Z6" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA6" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="V3" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="W3" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="X3" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y3" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z3" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA3" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB3" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC3" s="93" t="s">
+      <c r="AB6" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC6" s="95" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="93">
-        <v>1260</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="93">
-        <v>1320</v>
-      </c>
-      <c r="I4" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="R4" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="S4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="U4" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="V4" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="W4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z4" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB4" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC4" s="93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="93">
-        <v>1320</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="93">
-        <v>1920</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="L5" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="M5" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="O5" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="P5" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q5" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="S5" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="T5" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="V5" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="W5" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="X5" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y5" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z5" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA5" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB5" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC5" s="93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="93">
-        <v>1920</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="93">
-        <v>2010</v>
-      </c>
-      <c r="I6" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="N6" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="O6" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="P6" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q6" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="R6" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="S6" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="T6" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="V6" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="W6" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="X6" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y6" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z6" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA6" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB6" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC6" s="93" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="7" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>190</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="97" t="s">
+      <c r="C7" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="93">
+      <c r="E7" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="95">
         <v>2010</v>
       </c>
-      <c r="G7" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="93">
+      <c r="G7" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="95">
         <v>2610</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="100" t="s">
+      <c r="K7" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="N7" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="O7" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="P7" s="100" t="s">
+      <c r="N7" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q7" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="Q7" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="R7" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="T7" s="68" t="s">
+      <c r="R7" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="S7" s="112"/>
+      <c r="T7" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="U7" s="93" t="s">
+      <c r="U7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="V7" s="99" t="s">
+      <c r="V7" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="W7" s="93" t="s">
+      <c r="W7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="X7" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y7" s="93" t="s">
+      <c r="X7" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="Z7" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA7" s="93" t="s">
+      <c r="Z7" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="AB7" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC7" s="93" t="s">
+      <c r="AB7" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC7" s="95" t="s">
         <v>200</v>
       </c>
     </row>

--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFA824-11BC-4650-99AD-48FD9C5F7B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E198A7-2FFE-467D-965D-A33C83F4A72B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Overview" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="244">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -866,9 +866,6 @@
   </si>
   <si>
     <t>120 - 180 @cite Pickering1982blood</t>
-  </si>
-  <si>
-    <t>|&lt;span class="danger"&gt;</t>
   </si>
   <si>
     <t>Increase @cite rmetoyer2016SME</t>
@@ -3519,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C347C6-C685-4770-B27F-898832A98C99}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,7 +3733,7 @@
         <v>190</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>190</v>
@@ -3763,28 +3760,28 @@
         <v>212</v>
       </c>
       <c r="K3" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L3" s="115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M3" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N3" s="115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P3" s="115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R3" s="116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S3" s="113" t="s">
         <v>199</v>
@@ -3796,25 +3793,25 @@
         <v>199</v>
       </c>
       <c r="V3" s="114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X3" s="114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z3" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB3" s="114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC3" s="95" t="s">
         <v>200</v>
@@ -3825,7 +3822,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>190</v>
@@ -3844,7 +3841,7 @@
         <v>1320</v>
       </c>
       <c r="I4" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" s="115" t="s">
         <v>213</v>
@@ -3853,25 +3850,25 @@
         <v>199</v>
       </c>
       <c r="L4" s="114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M4" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N4" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="P4" s="114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R4" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S4" s="113" t="s">
         <v>199</v>
@@ -3880,28 +3877,28 @@
         <v>150</v>
       </c>
       <c r="U4" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V4" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X4" s="114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z4" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB4" s="114" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC4" s="95" t="s">
         <v>200</v>
@@ -3912,7 +3909,7 @@
         <v>190</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>190</v>
@@ -3939,28 +3936,28 @@
         <v>215</v>
       </c>
       <c r="K5" s="113" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="L5" s="115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="N5" s="114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O5" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P5" s="115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R5" s="116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S5" s="113" t="s">
         <v>199</v>
@@ -3969,28 +3966,28 @@
         <v>97</v>
       </c>
       <c r="U5" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V5" s="115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W5" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X5" s="116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z5" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB5" s="114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC5" s="95" t="s">
         <v>200</v>
@@ -4001,7 +3998,7 @@
         <v>190</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>190</v>
@@ -4028,28 +4025,28 @@
         <v>214</v>
       </c>
       <c r="K6" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L6" s="115" t="s">
         <v>214</v>
       </c>
       <c r="M6" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N6" s="115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O6" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P6" s="115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R6" s="116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S6" s="113" t="s">
         <v>199</v>
@@ -4058,28 +4055,28 @@
         <v>109</v>
       </c>
       <c r="U6" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V6" s="115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W6" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X6" s="116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z6" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB6" s="114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC6" s="95" t="s">
         <v>200</v>
@@ -4117,7 +4114,7 @@
         <v>214</v>
       </c>
       <c r="K7" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L7" s="115" t="s">
         <v>214</v>
@@ -4126,19 +4123,19 @@
         <v>199</v>
       </c>
       <c r="N7" s="114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O7" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P7" s="115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R7" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S7" s="112"/>
       <c r="T7" s="113" t="s">
@@ -4148,25 +4145,25 @@
         <v>199</v>
       </c>
       <c r="V7" s="114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X7" s="114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z7" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB7" s="114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC7" s="95" t="s">
         <v>200</v>

--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E198A7-2FFE-467D-965D-A33C83F4A72B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880F831-8415-4293-859C-11965479F3A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,9 +856,6 @@
     <t>Sweat Rate  (mL/min)</t>
   </si>
   <si>
-    <t>&gt; 80 @cite metoyer2016SME</t>
-  </si>
-  <si>
     <t>Decrease @cite metoyer2016SME</t>
   </si>
   <si>
@@ -1002,6 +999,9 @@
   </si>
   <si>
     <t>Increase toward max exertion values 34.4% above resting (168); @cite Christie1987clinical 28.8% above resting (161) @cite Pickering1982blood</t>
+  </si>
+  <si>
+    <t>&gt; 80 @cite rmetoyer2016SME</t>
   </si>
 </sst>
 </file>
@@ -3516,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C347C6-C685-4770-B27F-898832A98C99}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3733,7 @@
         <v>190</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>190</v>
@@ -3757,31 +3757,31 @@
         <v>199</v>
       </c>
       <c r="J3" s="114" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="K3" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L3" s="115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M3" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N3" s="115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P3" s="115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R3" s="116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S3" s="113" t="s">
         <v>199</v>
@@ -3793,25 +3793,25 @@
         <v>199</v>
       </c>
       <c r="V3" s="114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X3" s="114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z3" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB3" s="114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC3" s="95" t="s">
         <v>200</v>
@@ -3822,7 +3822,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>190</v>
@@ -3841,34 +3841,34 @@
         <v>1320</v>
       </c>
       <c r="I4" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="115" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="L4" s="114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M4" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N4" s="115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="P4" s="114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R4" s="115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S4" s="113" t="s">
         <v>199</v>
@@ -3877,28 +3877,28 @@
         <v>150</v>
       </c>
       <c r="U4" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V4" s="115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X4" s="114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z4" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB4" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC4" s="95" t="s">
         <v>200</v>
@@ -3909,7 +3909,7 @@
         <v>190</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>190</v>
@@ -3933,31 +3933,31 @@
         <v>199</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K5" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L5" s="115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="N5" s="114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O5" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P5" s="115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R5" s="116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S5" s="113" t="s">
         <v>199</v>
@@ -3966,28 +3966,28 @@
         <v>97</v>
       </c>
       <c r="U5" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V5" s="115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W5" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X5" s="116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z5" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB5" s="114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC5" s="95" t="s">
         <v>200</v>
@@ -3998,7 +3998,7 @@
         <v>190</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>190</v>
@@ -4022,31 +4022,31 @@
         <v>199</v>
       </c>
       <c r="J6" s="114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K6" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L6" s="115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M6" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N6" s="115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O6" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P6" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R6" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S6" s="113" t="s">
         <v>199</v>
@@ -4055,28 +4055,28 @@
         <v>109</v>
       </c>
       <c r="U6" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V6" s="115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W6" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X6" s="116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z6" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB6" s="114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC6" s="95" t="s">
         <v>200</v>
@@ -4111,31 +4111,31 @@
         <v>199</v>
       </c>
       <c r="J7" s="114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K7" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L7" s="115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="N7" s="114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O7" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P7" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R7" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S7" s="112"/>
       <c r="T7" s="113" t="s">
@@ -4145,25 +4145,25 @@
         <v>199</v>
       </c>
       <c r="V7" s="114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X7" s="114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z7" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB7" s="114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC7" s="95" t="s">
         <v>200</v>

--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880F831-8415-4293-859C-11965479F3A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63532E6F-A9BD-4C6F-81A9-15B7AD75B865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,6 +856,9 @@
     <t>Sweat Rate  (mL/min)</t>
   </si>
   <si>
+    <t>&gt; 80 @cite metoyer2016SME</t>
+  </si>
+  <si>
     <t>Decrease @cite metoyer2016SME</t>
   </si>
   <si>
@@ -865,12 +868,6 @@
     <t>120 - 180 @cite Pickering1982blood</t>
   </si>
   <si>
-    <t>Increase @cite rmetoyer2016SME</t>
-  </si>
-  <si>
-    <t>Some recovery@cite rmetoyer2016SME</t>
-  </si>
-  <si>
     <t>Increase @cite Pickering1982blood</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>Decrease @cite ODonnell1977hemodynamic</t>
   </si>
   <si>
-    <t>Some recovery @cite rmetoyer2016SME</t>
-  </si>
-  <si>
     <t>&lt; 120 @cite Bouchama2002heat</t>
   </si>
   <si>
@@ -898,22 +892,10 @@
     <t>&lt;/span&gt;|&lt;span class="danger"&gt;</t>
   </si>
   <si>
-    <t>Increase  @cite rmetoyer2016SME</t>
-  </si>
-  <si>
-    <t>No change  @cite rmetoyer2016SME</t>
-  </si>
-  <si>
-    <t>Decreasing with treatment  @cite rmetoyer2016SME</t>
-  </si>
-  <si>
     <t>&gt;40 degC @cite Bouchama2002heat</t>
   </si>
   <si>
     <t>&lt; Core @cite Benzinger1969heat</t>
-  </si>
-  <si>
-    <t>No change @cite rmetoyer2016SME</t>
   </si>
   <si>
     <r>
@@ -1001,7 +983,25 @@
     <t>Increase toward max exertion values 34.4% above resting (168); @cite Christie1987clinical 28.8% above resting (161) @cite Pickering1982blood</t>
   </si>
   <si>
-    <t>&gt; 80 @cite rmetoyer2016SME</t>
+    <t>Some recovery @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Increase @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Increase  @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>No change  @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Decreasing with treatment  @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>No change @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Some recovery@cite metoyer2016SME</t>
   </si>
 </sst>
 </file>
@@ -3516,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C347C6-C685-4770-B27F-898832A98C99}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3733,7 @@
         <v>190</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>190</v>
@@ -3757,31 +3757,31 @@
         <v>199</v>
       </c>
       <c r="J3" s="114" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="K3" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L3" s="115" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M3" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N3" s="115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P3" s="115" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q3" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R3" s="116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S3" s="113" t="s">
         <v>199</v>
@@ -3793,25 +3793,25 @@
         <v>199</v>
       </c>
       <c r="V3" s="114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X3" s="114" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Y3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z3" s="114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA3" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB3" s="114" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC3" s="95" t="s">
         <v>200</v>
@@ -3822,7 +3822,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>190</v>
@@ -3841,34 +3841,34 @@
         <v>1320</v>
       </c>
       <c r="I4" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J4" s="115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="L4" s="114" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M4" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N4" s="115" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="P4" s="114" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R4" s="115" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="S4" s="113" t="s">
         <v>199</v>
@@ -3877,28 +3877,28 @@
         <v>150</v>
       </c>
       <c r="U4" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V4" s="115" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="W4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X4" s="114" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z4" s="114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA4" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB4" s="114" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AC4" s="95" t="s">
         <v>200</v>
@@ -3909,7 +3909,7 @@
         <v>190</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>190</v>
@@ -3933,31 +3933,31 @@
         <v>199</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K5" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L5" s="115" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="N5" s="114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O5" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P5" s="115" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R5" s="116" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S5" s="113" t="s">
         <v>199</v>
@@ -3966,28 +3966,28 @@
         <v>97</v>
       </c>
       <c r="U5" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V5" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="W5" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="X5" s="116" t="s">
         <v>224</v>
-      </c>
-      <c r="W5" s="113" t="s">
-        <v>223</v>
-      </c>
-      <c r="X5" s="116" t="s">
-        <v>229</v>
       </c>
       <c r="Y5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z5" s="114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA5" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB5" s="114" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC5" s="95" t="s">
         <v>200</v>
@@ -3998,7 +3998,7 @@
         <v>190</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>190</v>
@@ -4022,31 +4022,31 @@
         <v>199</v>
       </c>
       <c r="J6" s="114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K6" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L6" s="115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M6" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N6" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="P6" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="113" t="s">
-        <v>225</v>
-      </c>
-      <c r="P6" s="115" t="s">
+      <c r="Q6" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="Q6" s="113" t="s">
-        <v>223</v>
-      </c>
       <c r="R6" s="116" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S6" s="113" t="s">
         <v>199</v>
@@ -4055,28 +4055,28 @@
         <v>109</v>
       </c>
       <c r="U6" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V6" s="115" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="W6" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X6" s="116" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Y6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z6" s="114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB6" s="114" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC6" s="95" t="s">
         <v>200</v>
@@ -4111,31 +4111,31 @@
         <v>199</v>
       </c>
       <c r="J7" s="114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K7" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L7" s="115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="N7" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="O7" s="113" t="s">
-        <v>225</v>
-      </c>
-      <c r="P7" s="115" t="s">
+      <c r="Q7" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="Q7" s="113" t="s">
-        <v>223</v>
-      </c>
       <c r="R7" s="116" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="S7" s="112"/>
       <c r="T7" s="113" t="s">
@@ -4145,25 +4145,25 @@
         <v>199</v>
       </c>
       <c r="V7" s="114" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="W7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="X7" s="114" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Y7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="Z7" s="114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA7" s="113" t="s">
         <v>199</v>
       </c>
       <c r="AB7" s="114" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC7" s="95" t="s">
         <v>200</v>

--- a/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D8529-C2DE-40C6-ADA1-E9126F2AC727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF4A458-9D0C-47E4-B1D8-FCE85DDC1587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="8370" windowWidth="25785" windowHeight="23535" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="7650" windowWidth="27840" windowHeight="22365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Breakdown" sheetId="13" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="205">
   <si>
     <t>Segment Number</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>Some recovery@cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>|&lt;span class="danger"&gt;</t>
   </si>
 </sst>
 </file>
@@ -1088,42 +1094,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1132,136 +1126,106 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1306,7 +1270,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,9 +1294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1370,9 +1334,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1405,26 +1369,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1457,26 +1404,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1653,7 +1583,7 @@
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="4" topLeftCell="AH1" activePane="topRight" state="frozen"/>
@@ -1662,1154 +1592,1124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="27" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="35" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="36" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="36" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22" style="36" customWidth="1"/>
-    <col min="18" max="18" width="23" style="35" customWidth="1"/>
-    <col min="19" max="19" width="22" style="36" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="36" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="35" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="36" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7109375" style="35" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" style="36" customWidth="1"/>
-    <col min="26" max="26" width="27" style="35" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="36" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="28.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="28.42578125" style="36" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="35.140625" style="35" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="36.42578125" style="37" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="23.85546875" style="25" customWidth="1"/>
-    <col min="35" max="35" width="23.5703125" style="25" customWidth="1"/>
-    <col min="36" max="36" width="23" style="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.85546875" style="25" customWidth="1"/>
-    <col min="38" max="38" width="25.85546875" style="25" customWidth="1"/>
-    <col min="39" max="39" width="23.7109375" style="25" customWidth="1"/>
-    <col min="40" max="41" width="29.42578125" style="25" customWidth="1"/>
-    <col min="42" max="43" width="25.42578125" style="25" customWidth="1"/>
-    <col min="44" max="45" width="29" style="25" customWidth="1"/>
-    <col min="46" max="47" width="22.7109375" style="25" customWidth="1"/>
-    <col min="48" max="52" width="27.85546875" style="25" customWidth="1"/>
-    <col min="53" max="53" width="29.85546875" style="25" customWidth="1"/>
-    <col min="54" max="54" width="20.42578125" style="25" customWidth="1"/>
-    <col min="55" max="55" width="19.85546875" style="25" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="25"/>
+    <col min="11" max="11" width="18.42578125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="28" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" style="28" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="28" customWidth="1"/>
+    <col min="17" max="17" width="22" style="29" customWidth="1"/>
+    <col min="18" max="18" width="23" style="28" customWidth="1"/>
+    <col min="19" max="19" width="22" style="29" customWidth="1"/>
+    <col min="20" max="20" width="29.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="29" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="28" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="29" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" style="28" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="29" customWidth="1"/>
+    <col min="26" max="26" width="27" style="28" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="29" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" style="28" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="28.42578125" style="28" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="28.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="35.140625" style="28" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="36.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="23.85546875" style="20" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" style="20" customWidth="1"/>
+    <col min="36" max="36" width="23" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" style="20" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" style="20" customWidth="1"/>
+    <col min="39" max="39" width="23.7109375" style="20" customWidth="1"/>
+    <col min="40" max="41" width="29.42578125" style="20" customWidth="1"/>
+    <col min="42" max="43" width="25.42578125" style="20" customWidth="1"/>
+    <col min="44" max="45" width="29" style="20" customWidth="1"/>
+    <col min="46" max="47" width="22.7109375" style="20" customWidth="1"/>
+    <col min="48" max="52" width="27.85546875" style="20" customWidth="1"/>
+    <col min="53" max="53" width="29.85546875" style="20" customWidth="1"/>
+    <col min="54" max="54" width="20.42578125" style="20" customWidth="1"/>
+    <col min="55" max="55" width="19.85546875" style="20" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:55" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" s="54" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="42" t="s">
+      <c r="AN1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="55" t="s">
+      <c r="AO1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="42" t="s">
+      <c r="AP1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="55" t="s">
+      <c r="AQ1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="AR1" s="42" t="s">
+      <c r="AR1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="55" t="s">
+      <c r="AS1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="42" t="s">
+      <c r="AT1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="55" t="s">
+      <c r="AU1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="AV1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="55" t="s">
+      <c r="AW1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="42" t="s">
+      <c r="AX1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="55" t="s">
+      <c r="AY1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="42" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="55" t="s">
+      <c r="BA1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="42" t="s">
+      <c r="BB1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="BC1" s="55" t="s">
+      <c r="BC1" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>60</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="7">
         <v>5500</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="12" t="s">
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="24">
+      <c r="AG2" s="19">
         <v>40.658000000000001</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="6">
         <v>37</v>
       </c>
-      <c r="AI2" s="59">
+      <c r="AI2" s="45">
         <v>37</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="59">
+      <c r="AK2" s="45">
         <v>33</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AM2" s="59">
+      <c r="AM2" s="45">
         <v>0</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="57" t="s">
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="11" t="s">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="11" t="s">
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="11" t="s">
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="11" t="s">
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="11" t="s">
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BC2" s="45"/>
+      <c r="BC2" s="34"/>
     </row>
-    <row r="3" spans="1:55" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <f>B2+C2</f>
         <v>60</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="7">
         <v>1200</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="45">
         <v>130</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="47">
         <v>60</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>5750</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="47">
         <v>85</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="Q3" s="47">
         <v>100</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="60">
+      <c r="S3" s="46">
         <v>65</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="59">
+      <c r="U3" s="45">
         <v>7500</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="59">
+      <c r="Y3" s="45">
         <v>20</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="AA3" s="59">
+      <c r="AA3" s="45">
         <v>0.72</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AB3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="23" t="s">
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="44">
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="33">
         <v>36.732999999999997</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AI3" s="59">
+      <c r="AI3" s="45">
         <v>37.5</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK3" s="59">
+      <c r="AK3" s="45">
         <v>32.799999999999997</v>
       </c>
-      <c r="AL3" s="47" t="s">
+      <c r="AL3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="59">
+      <c r="AM3" s="45">
         <v>0.05</v>
       </c>
-      <c r="AN3" s="56" t="s">
+      <c r="AN3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="56" t="s">
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="56" t="s">
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="56" t="s">
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="56" t="s">
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="56" t="s">
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="45"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="34"/>
     </row>
-    <row r="4" spans="1:55" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:55" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <f>B3+C3</f>
         <v>1260</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="7">
         <v>60</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="47">
         <v>180</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="45">
         <v>55</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="45">
         <v>5750</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="47">
         <v>50</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="45">
         <v>65</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="47">
         <v>35</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="U4" s="61">
+      <c r="U4" s="47">
         <v>10500</v>
       </c>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="47">
         <v>24</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" s="61">
+      <c r="AA4" s="47">
         <v>0.6</v>
       </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="43" t="s">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AI4" s="59">
+      <c r="AI4" s="45">
         <v>37.6</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK4" s="59">
+      <c r="AK4" s="45">
         <v>32.799999999999997</v>
       </c>
-      <c r="AL4" s="43" t="s">
+      <c r="AL4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="59">
+      <c r="AM4" s="45">
         <v>0.05</v>
       </c>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="45"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="34"/>
     </row>
     <row r="5" spans="1:55" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <f>B4+C4</f>
         <v>1320</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>600</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="43" t="s">
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V5" s="48"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="43" t="s">
+      <c r="V5" s="36"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="56" t="s">
+      <c r="Z5" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="61" t="s">
+      <c r="AA5" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="23" t="s">
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="24">
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="19">
         <v>41.706000000000003</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AI5" s="60">
+      <c r="AI5" s="46">
         <v>38</v>
       </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK5" s="59">
+      <c r="AK5" s="45">
         <v>30</v>
       </c>
-      <c r="AL5" s="47" t="s">
+      <c r="AL5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AM5" s="59">
+      <c r="AM5" s="45">
         <v>0.11</v>
       </c>
-      <c r="AN5" s="56" t="s">
+      <c r="AN5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="56" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="56" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="56" t="s">
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="56" t="s">
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="56" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="56" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="45"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="34"/>
     </row>
     <row r="6" spans="1:55" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <f t="shared" ref="B6:B8" si="0">B5+C5</f>
         <v>1920</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>90</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="48">
         <v>5800</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="O6" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="43" t="s">
+      <c r="R6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="V6" s="48"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="43" t="s">
+      <c r="V6" s="36"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z6" s="56" t="s">
+      <c r="Z6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="23" t="s">
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="24">
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="19">
         <v>39.488999999999997</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AH6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AI6" s="60">
+      <c r="AI6" s="46">
         <v>38.299999999999997</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK6" s="59">
+      <c r="AK6" s="45">
         <v>29.8</v>
       </c>
-      <c r="AL6" s="47" t="s">
+      <c r="AL6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AM6" s="59">
+      <c r="AM6" s="45">
         <v>0.11</v>
       </c>
-      <c r="AN6" s="56" t="s">
+      <c r="AN6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="56" t="s">
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="56" t="s">
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="56" t="s">
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="56" t="s">
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="56" t="s">
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="45"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="34"/>
     </row>
     <row r="7" spans="1:55" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>600</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="48">
         <v>6400</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="43" t="s">
+      <c r="V7" s="36"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="56" t="s">
+      <c r="Z7" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="23" t="s">
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="24">
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="19">
         <v>39.488999999999997</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AH7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AI7" s="59">
+      <c r="AI7" s="45">
         <v>38.1</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK7" s="59">
+      <c r="AK7" s="45">
         <v>24</v>
       </c>
-      <c r="AL7" s="47" t="s">
+      <c r="AL7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" s="59">
+      <c r="AM7" s="45">
         <v>0.1</v>
       </c>
-      <c r="AN7" s="56" t="s">
+      <c r="AN7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AO7" s="60">
+      <c r="AO7" s="46">
         <v>3.51</v>
       </c>
-      <c r="AP7" s="56" t="s">
+      <c r="AP7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AQ7" s="60">
+      <c r="AQ7" s="46">
         <v>13.82</v>
       </c>
-      <c r="AR7" s="56" t="s">
+      <c r="AR7" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AS7" s="60">
+      <c r="AS7" s="46">
         <v>4.87</v>
       </c>
-      <c r="AT7" s="56" t="s">
+      <c r="AT7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AU7" s="60">
+      <c r="AU7" s="46">
         <v>26.14</v>
       </c>
-      <c r="AV7" s="56" t="s">
+      <c r="AV7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AW7" s="61">
+      <c r="AW7" s="47">
         <v>0.95</v>
       </c>
-      <c r="AX7" s="56" t="s">
+      <c r="AX7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AY7" s="59">
+      <c r="AY7" s="45">
         <v>47.94</v>
       </c>
-      <c r="AZ7" s="56" t="s">
+      <c r="AZ7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="BA7" s="60">
+      <c r="BA7" s="46">
         <v>145</v>
       </c>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="59">
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="45">
         <v>5.63</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>2610</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="51"/>
-      <c r="AY8" s="51"/>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="51"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="R10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="AS10" s="25" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="AS10" s="20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="R11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="V11" s="39"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="R12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="V12" s="39"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="R13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="V13" s="39"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="R14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="V14" s="39"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="R15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="V15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2829,661 +2729,661 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="67" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="67" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="67" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" style="67" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" style="67" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" style="67" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="25.28515625" style="67" customWidth="1"/>
-    <col min="29" max="29" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="2" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="53" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="53" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="53" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" style="53" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="53" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" style="53" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="25.28515625" style="53" customWidth="1"/>
+    <col min="29" max="29" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="64" t="s">
+      <c r="G1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="64" t="s">
+      <c r="I1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="65" t="s">
+      <c r="O1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="S1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="W1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Y1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="AA1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB1" s="65" t="s">
+      <c r="AA1" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB1" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="52" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="65" t="s">
+      <c r="G2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="65" t="s">
+      <c r="I2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="65" t="s">
+      <c r="M2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="65" t="s">
+      <c r="O2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" s="65" t="s">
+      <c r="Q2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="T2" s="65" t="s">
+      <c r="S2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="U2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="V2" s="65" t="s">
+      <c r="U2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="W2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="65" t="s">
+      <c r="W2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Y2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AA2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AC2" s="52" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="66">
+      <c r="E3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="52">
         <v>60</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="66">
+      <c r="G3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="52">
         <v>1260</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="69" t="s">
+      <c r="L3" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="M3" s="69" t="s">
+      <c r="N3" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="V3" s="70" t="s">
+      <c r="V3" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="W3" s="69" t="s">
+      <c r="W3" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="70" t="s">
+      <c r="X3" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="Y3" s="69" t="s">
+      <c r="Y3" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="Z3" s="70" t="s">
+      <c r="Z3" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="69" t="s">
+      <c r="AA3" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="AB3" s="70" t="s">
+      <c r="AB3" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="AC3" s="66" t="s">
+      <c r="AC3" s="52" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="66">
+      <c r="C4" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="52">
         <v>1260</v>
       </c>
-      <c r="G4" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="66">
+      <c r="G4" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="52">
         <v>1320</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="69" t="s">
+      <c r="V4" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="W4" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="O4" s="69" t="s">
+      <c r="X4" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y4" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="S4" s="69" t="s">
+      <c r="Z4" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA4" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="V4" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="W4" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="X4" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y4" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z4" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA4" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB4" s="70" t="s">
+      <c r="AB4" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="AC4" s="66" t="s">
+      <c r="AC4" s="52" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="52">
         <v>1320</v>
       </c>
-      <c r="G5" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="66">
+      <c r="G5" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="52">
         <v>1920</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" s="69" t="s">
+      <c r="N5" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="O5" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="L5" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="69" t="s">
+      <c r="P5" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="N5" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q5" s="69" t="s">
+      <c r="T5" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="V5" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="W5" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="R5" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="S5" s="69" t="s">
+      <c r="X5" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T5" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="W5" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="X5" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y5" s="69" t="s">
+      <c r="Z5" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="Z5" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA5" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB5" s="70" t="s">
+      <c r="AB5" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="52" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="66">
+      <c r="E6" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="52">
         <v>1920</v>
       </c>
-      <c r="G6" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="66">
+      <c r="G6" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="52">
         <v>2010</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="L6" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="M6" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="M6" s="69" t="s">
+      <c r="N6" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="S6" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="P6" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="69" t="s">
+      <c r="V6" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="R6" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="S6" s="69" t="s">
+      <c r="X6" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T6" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="W6" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="X6" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y6" s="69" t="s">
+      <c r="Z6" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA6" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="Z6" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA6" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB6" s="70" t="s">
+      <c r="AB6" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="AC6" s="66" t="s">
+      <c r="AC6" s="52" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="66">
+      <c r="E7" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="52">
         <v>2010</v>
       </c>
-      <c r="G7" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="66">
+      <c r="G7" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="52">
         <v>2610</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="M7" s="69" t="s">
+      <c r="N7" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="N7" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="O7" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="P7" s="71" t="s">
+      <c r="P7" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="Q7" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="R7" s="72" t="s">
+      <c r="Q7" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="69" t="s">
+      <c r="S7" s="54"/>
+      <c r="T7" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="U7" s="69" t="s">
+      <c r="U7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="V7" s="70" t="s">
+      <c r="V7" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="W7" s="69" t="s">
+      <c r="W7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="70" t="s">
+      <c r="X7" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="Z7" s="70" t="s">
+      <c r="Z7" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="AA7" s="69" t="s">
+      <c r="AA7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="AB7" s="70" t="s">
+      <c r="AB7" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="AC7" s="66" t="s">
+      <c r="AC7" s="52" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="P8" s="58"/>
-      <c r="V8" s="56"/>
+      <c r="P8" s="44"/>
+      <c r="V8" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
